--- a/biology/Zoologie/Choerophryne/Choerophryne.xlsx
+++ b/biology/Zoologie/Choerophryne/Choerophryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choerophryne est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choerophryne est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 31 espèces de ce genre sont endémiques de Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 31 espèces de ce genre sont endémiques de Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (28 mars 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (28 mars 2020) :
 Choerophryne alainduboisi Günther &amp; Richards, 2018
 Choerophryne allisoni Richards &amp; Burton, 2003
 Choerophryne alpestris (Kraus, 2010)
@@ -608,9 +624,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Albericus[3] a été placé en synonymie avec Choerophryne par Peloso et al. en 2015[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Albericus a été placé en synonymie avec Choerophryne par Peloso et al. en 2015.
 </t>
         </is>
       </c>
@@ -639,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Van Kampen, 1914 : Zur Fauna von Nord-Neuguinea. Nach den Sammlungen von Dr. P.N. van Kampen und K. Gjellerup aus den Jahren 1910 und 1911. Amphibien. Zoologische Jahrbücher, Abteilung für Systematik, Geographie und Biologie der Tiere, vol. 37, p. 365-378 (texte intégral).</t>
         </is>
